--- a/biology/Biochimie/Acide_tricarboxylique/Acide_tricarboxylique.xlsx
+++ b/biology/Biochimie/Acide_tricarboxylique/Acide_tricarboxylique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un acide tricarboxylique est un composé organique possédant trois groupes fonctionnels carboxyle –COOH. Il s'agit donc d'un triacide carboxylique. L'exemple le plus familier d'un acide tricarboxylique est l'acide citrique, qui donne son goût acide au citron.
 Ci-dessous figurent quelques exemples d'acides tricarboxyliques importants en biochimie, car ils interviennent dans le cycle de Krebs, lui-même parfois appelé tricarboxylic acid cycle (TCAC ou TCA cycle) par les Anglo-saxons :
